--- a/PI-PROG/JLC-PNP-TOP.xlsx
+++ b/PI-PROG/JLC-PNP-TOP.xlsx
@@ -14,23 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">U2          </t>
-  </si>
-  <si>
     <t xml:space="preserve">C8          </t>
   </si>
   <si>
     <t xml:space="preserve">C7          </t>
   </si>
   <si>
-    <t xml:space="preserve">R7          </t>
-  </si>
-  <si>
     <t xml:space="preserve">R16         </t>
   </si>
   <si>
@@ -131,13 +125,16 @@
   </si>
   <si>
     <t>Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1          </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,12 +173,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,43 +480,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40.64</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="C2">
-        <v>91.46</v>
+        <v>87.12</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>90</v>
@@ -538,17 +526,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35.869999999999997</v>
+        <v>30.48</v>
       </c>
       <c r="C3">
-        <v>90.21</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -558,137 +546,131 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>30.73</v>
+      </c>
+      <c r="C4">
+        <v>106.68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>33.65</v>
-      </c>
-      <c r="C4">
-        <v>89.55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
+      <c r="B5">
+        <v>26.26</v>
+      </c>
+      <c r="C5">
+        <v>85.49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23.6</v>
+      </c>
+      <c r="C6">
+        <v>85.49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>29.95</v>
-      </c>
-      <c r="C5">
-        <v>90.19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>26.77</v>
-      </c>
-      <c r="C6">
-        <v>85.23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6">
-        <v>270</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>23.6</v>
+        <v>21.18</v>
       </c>
       <c r="C7">
         <v>85.49</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>46.1</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>21.18</v>
-      </c>
-      <c r="C8">
-        <v>85.49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>270</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9">
+        <v>42.67</v>
+      </c>
+      <c r="C9">
+        <v>87.12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>42.93</v>
       </c>
-      <c r="C9">
-        <v>85.49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>180</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>42.29</v>
-      </c>
       <c r="C10">
-        <v>87.65</v>
+        <v>98.44</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>180</v>
@@ -698,17 +680,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>42.93</v>
+        <v>42.29</v>
       </c>
       <c r="C11">
-        <v>98.44</v>
+        <v>100.47</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>180</v>
@@ -718,37 +700,37 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="C12">
+        <v>104.03</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>42.29</v>
-      </c>
-      <c r="C12">
-        <v>100.47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>180</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B13">
-        <v>40.619999999999997</v>
+        <v>35.81</v>
       </c>
       <c r="C13">
-        <v>104.03</v>
+        <v>102.76</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -758,17 +740,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>35.81</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="C14">
-        <v>102.76</v>
+        <v>102.13</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>90</v>
@@ -778,17 +760,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>33.659999999999997</v>
+        <v>30.71</v>
       </c>
       <c r="C15">
-        <v>102.13</v>
+        <v>102.89</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>90</v>
@@ -798,117 +780,117 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>30.71</v>
+        <v>29.18</v>
       </c>
       <c r="C16">
         <v>102.89</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16">
+        <v>270</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>23.98</v>
+      </c>
+      <c r="C17">
+        <v>101.11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
-      </c>
-      <c r="B17">
-        <v>29.18</v>
-      </c>
-      <c r="C17">
-        <v>102.89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>270</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B18">
         <v>23.98</v>
       </c>
       <c r="C18">
-        <v>101.11</v>
+        <v>105.17</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>14.58</v>
+      </c>
+      <c r="C19">
+        <v>107.07</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>180</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>23.98</v>
-      </c>
-      <c r="C19">
-        <v>105.17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20">
+        <v>25.37</v>
+      </c>
+      <c r="C20">
+        <v>69.62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
-      </c>
-      <c r="B20">
-        <v>14.58</v>
-      </c>
-      <c r="C20">
-        <v>107.07</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>180</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B21">
         <v>25.37</v>
       </c>
       <c r="C21">
-        <v>69.62</v>
+        <v>68.09</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -919,16 +901,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>25.37</v>
       </c>
       <c r="C22">
-        <v>68.09</v>
+        <v>50.31</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -938,17 +920,17 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>21</v>
       </c>
       <c r="B23">
         <v>25.37</v>
       </c>
       <c r="C23">
-        <v>50.31</v>
+        <v>48.91</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -958,37 +940,37 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>22</v>
       </c>
       <c r="B24">
         <v>25.37</v>
       </c>
       <c r="C24">
-        <v>48.91</v>
+        <v>47.39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>23</v>
       </c>
       <c r="B25">
         <v>25.37</v>
       </c>
       <c r="C25">
-        <v>47.39</v>
+        <v>45.49</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>180</v>
@@ -998,77 +980,77 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>21.07</v>
+      </c>
+      <c r="C26">
+        <v>45.74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>25.37</v>
       </c>
-      <c r="C26">
-        <v>45.49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26">
+      <c r="C27">
+        <v>23.77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
         <v>180</v>
       </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>21.07</v>
-      </c>
-      <c r="C27">
-        <v>45.74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28">
+        <v>6.07</v>
+      </c>
+      <c r="C28">
+        <v>24.78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
-      </c>
-      <c r="B28">
-        <v>25.37</v>
-      </c>
-      <c r="C28">
-        <v>23.77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28">
-        <v>180</v>
-      </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B29">
         <v>6.07</v>
       </c>
       <c r="C29">
-        <v>24.78</v>
+        <v>26.18</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1078,37 +1060,37 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>7.59</v>
+      </c>
+      <c r="C30">
+        <v>19.45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
-      </c>
-      <c r="B30">
-        <v>6.07</v>
-      </c>
-      <c r="C30">
-        <v>26.18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B31">
         <v>7.59</v>
       </c>
       <c r="C31">
-        <v>19.45</v>
+        <v>15.64</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>180</v>
@@ -1118,17 +1100,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>30</v>
       </c>
       <c r="B32">
         <v>7.59</v>
       </c>
       <c r="C32">
-        <v>15.64</v>
+        <v>12.08</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>180</v>
@@ -1137,23 +1119,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>7.59</v>
-      </c>
-      <c r="C33">
-        <v>12.08</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <v>180</v>
-      </c>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>0</v>
       </c>
     </row>

--- a/PI-PROG/JLC-PNP-TOP.xlsx
+++ b/PI-PROG/JLC-PNP-TOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">R1          </t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,33 +510,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>33.909999999999997</v>
+        <v>38.29</v>
       </c>
       <c r="C2">
-        <v>87.12</v>
+        <v>89.1</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>30.48</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>87.12</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -547,19 +547,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>30.73</v>
+        <v>30.48</v>
       </c>
       <c r="C4">
-        <v>106.68</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="E4">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>26.26</v>
+        <v>30.73</v>
       </c>
       <c r="C5">
-        <v>85.49</v>
+        <v>106.68</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>23.6</v>
+        <v>26.26</v>
       </c>
       <c r="C6">
         <v>85.49</v>
@@ -599,15 +599,18 @@
         <v>36</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>21.18</v>
+        <v>23.6</v>
       </c>
       <c r="C7">
         <v>85.49</v>
@@ -616,38 +619,35 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>46.1</v>
+        <v>21.18</v>
       </c>
       <c r="C8">
-        <v>87</v>
+        <v>85.49</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>42.67</v>
+        <v>46.1</v>
       </c>
       <c r="C9">
-        <v>87.12</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -661,19 +661,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>42.93</v>
+        <v>42.67</v>
       </c>
       <c r="C10">
-        <v>98.44</v>
+        <v>87.12</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="E10">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>42.29</v>
+        <v>42.93</v>
       </c>
       <c r="C11">
-        <v>100.47</v>
+        <v>98.44</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -701,19 +701,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>40.619999999999997</v>
+        <v>42.29</v>
       </c>
       <c r="C12">
-        <v>104.03</v>
+        <v>100.47</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -721,13 +721,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>35.81</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="C13">
-        <v>102.76</v>
+        <v>104.03</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>33.659999999999997</v>
+        <v>35.81</v>
       </c>
       <c r="C14">
-        <v>102.13</v>
+        <v>102.76</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>30.71</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="C15">
-        <v>102.89</v>
+        <v>102.13</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>29.18</v>
+        <v>30.71</v>
       </c>
       <c r="C16">
         <v>102.89</v>
@@ -793,7 +793,7 @@
         <v>36</v>
       </c>
       <c r="E16">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -801,19 +801,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>23.98</v>
+        <v>29.18</v>
       </c>
       <c r="C17">
-        <v>101.11</v>
+        <v>102.89</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -821,19 +821,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>23.98</v>
       </c>
       <c r="C18">
-        <v>105.17</v>
+        <v>101.11</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
@@ -841,19 +841,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>14.58</v>
+        <v>23.98</v>
       </c>
       <c r="C19">
-        <v>107.07</v>
+        <v>105.17</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -861,19 +861,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>25.37</v>
+        <v>14.58</v>
       </c>
       <c r="C20">
-        <v>69.62</v>
+        <v>107.07</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>25.37</v>
       </c>
       <c r="C21">
-        <v>68.09</v>
+        <v>69.62</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -901,13 +901,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>25.37</v>
       </c>
       <c r="C22">
-        <v>50.31</v>
+        <v>68.09</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>25.37</v>
       </c>
       <c r="C23">
-        <v>48.91</v>
+        <v>50.31</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -941,19 +941,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>25.37</v>
       </c>
       <c r="C24">
-        <v>47.39</v>
+        <v>48.91</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
       </c>
       <c r="E24">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>25.37</v>
       </c>
       <c r="C25">
-        <v>45.49</v>
+        <v>47.39</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -981,19 +981,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>21.07</v>
+        <v>25.37</v>
       </c>
       <c r="C26">
-        <v>45.74</v>
+        <v>45.49</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -1001,19 +1001,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>25.37</v>
+        <v>21.07</v>
       </c>
       <c r="C27">
-        <v>23.77</v>
+        <v>45.74</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
       </c>
       <c r="E27">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -1021,19 +1021,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>6.07</v>
+        <v>25.37</v>
       </c>
       <c r="C28">
-        <v>24.78</v>
+        <v>23.77</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>6.07</v>
       </c>
       <c r="C29">
-        <v>26.18</v>
+        <v>24.78</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>7.59</v>
+        <v>6.07</v>
       </c>
       <c r="C30">
-        <v>19.45</v>
+        <v>26.18</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
       </c>
       <c r="E30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>7.59</v>
       </c>
       <c r="C31">
-        <v>15.64</v>
+        <v>19.45</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>7.59</v>
       </c>
       <c r="C32">
-        <v>12.08</v>
+        <v>15.64</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -1119,28 +1119,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>7.59</v>
+      </c>
+      <c r="C33">
+        <v>12.08</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>180</v>
+      </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>0</v>
       </c>
     </row>
